--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H2">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I2">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J2">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.8783055092127</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N2">
-        <v>2.8783055092127</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O2">
-        <v>0.83605129775894</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P2">
-        <v>0.83605129775894</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q2">
-        <v>1.1022953667314</v>
+        <v>1.191230341828</v>
       </c>
       <c r="R2">
-        <v>1.1022953667314</v>
+        <v>7.147382050967999</v>
       </c>
       <c r="S2">
-        <v>0.19320644132137</v>
+        <v>0.1664409647061225</v>
       </c>
       <c r="T2">
-        <v>0.19320644132137</v>
+        <v>0.1479812566060189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H3">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I3">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J3">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0166510490548062</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N3">
-        <v>0.0166510490548062</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O3">
-        <v>0.004836571770008642</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P3">
-        <v>0.004836571770008642</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q3">
-        <v>0.006376798489799851</v>
+        <v>0.006982029795999998</v>
       </c>
       <c r="R3">
-        <v>0.006376798489799851</v>
+        <v>0.041892178776</v>
       </c>
       <c r="S3">
-        <v>0.00111770273233665</v>
+        <v>0.0009755424572797901</v>
       </c>
       <c r="T3">
-        <v>0.00111770273233665</v>
+        <v>0.0008673465631233302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H4">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I4">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J4">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.547781365742757</v>
+        <v>0.057175</v>
       </c>
       <c r="N4">
-        <v>0.547781365742757</v>
+        <v>0.171525</v>
       </c>
       <c r="O4">
-        <v>0.1591121304710512</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P4">
-        <v>0.1591121304710512</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q4">
-        <v>0.2097820608366209</v>
+        <v>0.02209825185</v>
       </c>
       <c r="R4">
-        <v>0.2097820608366209</v>
+        <v>0.1325895111</v>
       </c>
       <c r="S4">
-        <v>0.03676985919617227</v>
+        <v>0.003087609698212275</v>
       </c>
       <c r="T4">
-        <v>0.03676985919617227</v>
+        <v>0.002745167716716412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.522573029932645</v>
+        <v>0.386502</v>
       </c>
       <c r="H5">
-        <v>0.522573029932645</v>
+        <v>0.773004</v>
       </c>
       <c r="I5">
-        <v>0.3153367410215326</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J5">
-        <v>0.3153367410215326</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.8783055092127</v>
+        <v>0.590216</v>
       </c>
       <c r="N5">
-        <v>2.8783055092127</v>
+        <v>1.180432</v>
       </c>
       <c r="O5">
-        <v>0.83605129775894</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P5">
-        <v>0.83605129775894</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q5">
-        <v>1.504124831021105</v>
+        <v>0.228119664432</v>
       </c>
       <c r="R5">
-        <v>1.504124831021105</v>
+        <v>0.912478657728</v>
       </c>
       <c r="S5">
-        <v>0.2636376915621271</v>
+        <v>0.03187331256038577</v>
       </c>
       <c r="T5">
-        <v>0.2636376915621271</v>
+        <v>0.01889219541279107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H6">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I6">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J6">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0166510490548062</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N6">
-        <v>0.0166510490548062</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O6">
-        <v>0.004836571770008642</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P6">
-        <v>0.004836571770008642</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q6">
-        <v>0.008701389156127179</v>
+        <v>2.136256888481111</v>
       </c>
       <c r="R6">
-        <v>0.008701389156127179</v>
+        <v>19.22631199633</v>
       </c>
       <c r="S6">
-        <v>0.001525148779671271</v>
+        <v>0.298481867774851</v>
       </c>
       <c r="T6">
-        <v>0.001525148779671271</v>
+        <v>0.398066563229394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H7">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I7">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J7">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.547781365742757</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N7">
-        <v>0.547781365742757</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O7">
-        <v>0.1591121304710512</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P7">
-        <v>0.1591121304710512</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q7">
-        <v>0.2862557680368349</v>
+        <v>0.01252101186777778</v>
       </c>
       <c r="R7">
-        <v>0.2862557680368349</v>
+        <v>0.11268910681</v>
       </c>
       <c r="S7">
-        <v>0.05017390067973419</v>
+        <v>0.001749459547153349</v>
       </c>
       <c r="T7">
-        <v>0.05017390067973419</v>
+        <v>0.002333144571346259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7516506306323441</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H8">
-        <v>0.7516506306323441</v>
+        <v>2.079365</v>
       </c>
       <c r="I8">
-        <v>0.4535692557285884</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J8">
-        <v>0.4535692557285884</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.8783055092127</v>
+        <v>0.057175</v>
       </c>
       <c r="N8">
-        <v>2.8783055092127</v>
+        <v>0.171525</v>
       </c>
       <c r="O8">
-        <v>0.83605129775894</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P8">
-        <v>0.83605129775894</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q8">
-        <v>2.163480151152276</v>
+        <v>0.03962923129166667</v>
       </c>
       <c r="R8">
-        <v>2.163480151152276</v>
+        <v>0.356663081625</v>
       </c>
       <c r="S8">
-        <v>0.3792071648754429</v>
+        <v>0.005537071425351113</v>
       </c>
       <c r="T8">
-        <v>0.3792071648754429</v>
+        <v>0.007384445189507458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7516506306323441</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H9">
-        <v>0.7516506306323441</v>
+        <v>2.079365</v>
       </c>
       <c r="I9">
-        <v>0.4535692557285884</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J9">
-        <v>0.4535692557285884</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0166510490548062</v>
+        <v>0.590216</v>
       </c>
       <c r="N9">
-        <v>0.0166510490548062</v>
+        <v>1.180432</v>
       </c>
       <c r="O9">
-        <v>0.004836571770008642</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P9">
-        <v>0.004836571770008642</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q9">
-        <v>0.01251577152273518</v>
+        <v>0.4090914976133334</v>
       </c>
       <c r="R9">
-        <v>0.01251577152273518</v>
+        <v>2.45454898568</v>
       </c>
       <c r="S9">
-        <v>0.002193720258000722</v>
+        <v>0.05715904063638011</v>
       </c>
       <c r="T9">
-        <v>0.002193720258000722</v>
+        <v>0.05081962048646358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.064151</v>
+      </c>
+      <c r="I10">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J10">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N10">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.822428495022819</v>
+      </c>
+      <c r="P10">
+        <v>0.8679967027127143</v>
+      </c>
+      <c r="Q10">
+        <v>0.06590618561577777</v>
+      </c>
+      <c r="R10">
+        <v>0.5931556705419999</v>
+      </c>
+      <c r="S10">
+        <v>0.009208537365794106</v>
+      </c>
+      <c r="T10">
+        <v>0.0122808492485585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.064151</v>
+      </c>
+      <c r="I11">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J11">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.01806466666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.05419399999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.004820411347579552</v>
+      </c>
+      <c r="P11">
+        <v>0.005087495363717804</v>
+      </c>
+      <c r="Q11">
+        <v>0.0003862888104444443</v>
+      </c>
+      <c r="R11">
+        <v>0.003476599294</v>
+      </c>
+      <c r="S11">
+        <v>5.397300589816337E-05</v>
+      </c>
+      <c r="T11">
+        <v>7.198041584639245E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.064151</v>
+      </c>
+      <c r="I12">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J12">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.057175</v>
+      </c>
+      <c r="N12">
+        <v>0.171525</v>
+      </c>
+      <c r="O12">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P12">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q12">
+        <v>0.001222611141666667</v>
+      </c>
+      <c r="R12">
+        <v>0.011003500275</v>
+      </c>
+      <c r="S12">
+        <v>0.000170825549630632</v>
+      </c>
+      <c r="T12">
+        <v>0.0002278193310708283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.064151</v>
+      </c>
+      <c r="I13">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J13">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.590216</v>
+      </c>
+      <c r="N13">
+        <v>1.180432</v>
+      </c>
+      <c r="O13">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P13">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q13">
+        <v>0.01262098220533333</v>
+      </c>
+      <c r="R13">
+        <v>0.07572589323199999</v>
+      </c>
+      <c r="S13">
+        <v>0.001763427592493102</v>
+      </c>
+      <c r="T13">
+        <v>0.001567848585422533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8088005</v>
+      </c>
+      <c r="H14">
+        <v>1.617601</v>
+      </c>
+      <c r="I14">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J14">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N14">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.822428495022819</v>
+      </c>
+      <c r="P14">
+        <v>0.8679967027127143</v>
+      </c>
+      <c r="Q14">
+        <v>2.492788384240333</v>
+      </c>
+      <c r="R14">
+        <v>14.956730305442</v>
+      </c>
+      <c r="S14">
+        <v>0.3482971251760514</v>
+      </c>
+      <c r="T14">
+        <v>0.3096680336287428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8088005</v>
+      </c>
+      <c r="H15">
+        <v>1.617601</v>
+      </c>
+      <c r="I15">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J15">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.01806466666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.05419399999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.004820411347579552</v>
+      </c>
+      <c r="P15">
+        <v>0.005087495363717804</v>
+      </c>
+      <c r="Q15">
+        <v>0.01461071143233333</v>
+      </c>
+      <c r="R15">
+        <v>0.08766426859399999</v>
+      </c>
+      <c r="S15">
+        <v>0.002041436337248249</v>
+      </c>
+      <c r="T15">
+        <v>0.001815023813401822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="H10">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="I10">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="J10">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.547781365742757</v>
-      </c>
-      <c r="N10">
-        <v>0.547781365742757</v>
-      </c>
-      <c r="O10">
-        <v>0.1591121304710512</v>
-      </c>
-      <c r="P10">
-        <v>0.1591121304710512</v>
-      </c>
-      <c r="Q10">
-        <v>0.4117402090091901</v>
-      </c>
-      <c r="R10">
-        <v>0.4117402090091901</v>
-      </c>
-      <c r="S10">
-        <v>0.07216837059514475</v>
-      </c>
-      <c r="T10">
-        <v>0.07216837059514475</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8088005</v>
+      </c>
+      <c r="H16">
+        <v>1.617601</v>
+      </c>
+      <c r="I16">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J16">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.057175</v>
+      </c>
+      <c r="N16">
+        <v>0.171525</v>
+      </c>
+      <c r="O16">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P16">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q16">
+        <v>0.04624316858750001</v>
+      </c>
+      <c r="R16">
+        <v>0.277459011525</v>
+      </c>
+      <c r="S16">
+        <v>0.006461183299747317</v>
+      </c>
+      <c r="T16">
+        <v>0.0057445835257362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8088005</v>
+      </c>
+      <c r="H17">
+        <v>1.617601</v>
+      </c>
+      <c r="I17">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J17">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.590216</v>
+      </c>
+      <c r="N17">
+        <v>1.180432</v>
+      </c>
+      <c r="O17">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P17">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q17">
+        <v>0.477366995908</v>
+      </c>
+      <c r="R17">
+        <v>1.909467983632</v>
+      </c>
+      <c r="S17">
+        <v>0.06669862286740118</v>
+      </c>
+      <c r="T17">
+        <v>0.03953412167585969</v>
       </c>
     </row>
   </sheetData>
